--- a/NRI_STLF_Data/WeatherData/T_ahvaz/T_ahvaz95.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_ahvaz/T_ahvaz95.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NRST\WeatherData\T_ahvaz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.6.13\WeatherData\T_ahvaz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -224,12 +224,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -563,13 +563,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157:AA160"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>95</v>
       </c>
@@ -649,7 +649,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>95</v>
       </c>
@@ -732,7 +732,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>95</v>
       </c>
@@ -812,7 +812,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>95</v>
       </c>
@@ -889,7 +889,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>95</v>
       </c>
@@ -963,7 +963,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>95</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>95</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>95</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>95</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>95</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>95</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>95</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>95</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>95</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>95</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>95</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>95</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>95</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>95</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>95</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>95</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>95</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>95</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>95</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>95</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>95</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>95</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>95</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>95</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>95</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>95</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>95</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>95</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>95</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>95</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>95</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>95</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>95</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>95</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>95</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>95</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>95</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>95</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>95</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>95</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>95</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>95</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>95</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>95</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>95</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>95</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>95</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>95</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>95</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>95</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>95</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>95</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>95</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>95</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>95</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>95</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>95</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>95</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>95</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>95</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>95</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>95</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>95</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>95</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>95</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>95</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>95</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>95</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>95</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>95</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>95</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>95</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>95</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>95</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>95</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>95</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>95</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>95</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>95</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>95</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>95</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>95</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>95</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>95</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>95</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>95</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>95</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>95</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>95</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>95</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>95</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>95</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>95</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>95</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>95</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>95</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>95</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>95</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>95</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>95</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>95</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>95</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>95</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>95</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>95</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>95</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>95</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>95</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>95</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>95</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>95</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>95</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>95</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>95</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>95</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>95</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>95</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>95</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>95</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>95</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>95</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>95</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>95</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>95</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>95</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>95</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>95</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>95</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>95</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>95</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>95</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>95</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>95</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>95</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>95</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>95</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>95</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>95</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>95</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>95</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>95</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>95</v>
       </c>
@@ -12734,8 +12734,68 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>48</v>
+      </c>
+      <c r="G161">
+        <v>39</v>
+      </c>
+      <c r="H161">
+        <v>30</v>
+      </c>
+      <c r="I161">
+        <v>23</v>
+      </c>
+      <c r="J161">
+        <v>15</v>
+      </c>
+      <c r="K161">
+        <v>4</v>
+      </c>
+      <c r="L161">
+        <v>55</v>
+      </c>
+      <c r="M161">
+        <v>26</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161">
+        <v>1006</v>
+      </c>
+      <c r="P161">
+        <v>1003</v>
+      </c>
+      <c r="Q161">
+        <v>1001</v>
+      </c>
+      <c r="R161">
+        <v>10</v>
+      </c>
+      <c r="S161">
+        <v>7</v>
+      </c>
+      <c r="T161">
+        <v>3</v>
+      </c>
+      <c r="U161">
+        <v>11</v>
+      </c>
+      <c r="V161">
+        <v>5</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>2</v>
+      </c>
+      <c r="AA161">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>95</v>
       </c>
@@ -12751,8 +12811,65 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>49</v>
+      </c>
+      <c r="G162">
+        <v>39</v>
+      </c>
+      <c r="H162">
+        <v>29</v>
+      </c>
+      <c r="I162">
+        <v>12</v>
+      </c>
+      <c r="J162">
+        <v>9</v>
+      </c>
+      <c r="K162">
+        <v>6</v>
+      </c>
+      <c r="L162">
+        <v>31</v>
+      </c>
+      <c r="M162">
+        <v>16</v>
+      </c>
+      <c r="N162">
+        <v>5</v>
+      </c>
+      <c r="O162">
+        <v>1005</v>
+      </c>
+      <c r="P162">
+        <v>1002</v>
+      </c>
+      <c r="Q162">
+        <v>1000</v>
+      </c>
+      <c r="R162">
+        <v>10</v>
+      </c>
+      <c r="S162">
+        <v>9</v>
+      </c>
+      <c r="T162">
+        <v>7</v>
+      </c>
+      <c r="U162">
+        <v>19</v>
+      </c>
+      <c r="V162">
+        <v>8</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>95</v>
       </c>
@@ -12768,8 +12885,65 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>48</v>
+      </c>
+      <c r="G163">
+        <v>38</v>
+      </c>
+      <c r="H163">
+        <v>29</v>
+      </c>
+      <c r="I163">
+        <v>18</v>
+      </c>
+      <c r="J163">
+        <v>12</v>
+      </c>
+      <c r="K163">
+        <v>7</v>
+      </c>
+      <c r="L163">
+        <v>33</v>
+      </c>
+      <c r="M163">
+        <v>21</v>
+      </c>
+      <c r="N163">
+        <v>5</v>
+      </c>
+      <c r="O163">
+        <v>1005</v>
+      </c>
+      <c r="P163">
+        <v>1002</v>
+      </c>
+      <c r="Q163">
+        <v>1000</v>
+      </c>
+      <c r="R163">
+        <v>10</v>
+      </c>
+      <c r="S163">
+        <v>9</v>
+      </c>
+      <c r="T163">
+        <v>8</v>
+      </c>
+      <c r="U163">
+        <v>14</v>
+      </c>
+      <c r="V163">
+        <v>8</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>95</v>
       </c>
@@ -12785,8 +12959,68 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>47</v>
+      </c>
+      <c r="G164">
+        <v>39</v>
+      </c>
+      <c r="H164">
+        <v>31</v>
+      </c>
+      <c r="I164">
+        <v>26</v>
+      </c>
+      <c r="J164">
+        <v>18</v>
+      </c>
+      <c r="K164">
+        <v>12</v>
+      </c>
+      <c r="L164">
+        <v>70</v>
+      </c>
+      <c r="M164">
+        <v>33</v>
+      </c>
+      <c r="N164">
+        <v>10</v>
+      </c>
+      <c r="O164">
+        <v>1004</v>
+      </c>
+      <c r="P164">
+        <v>1001</v>
+      </c>
+      <c r="Q164">
+        <v>1000</v>
+      </c>
+      <c r="R164">
+        <v>10</v>
+      </c>
+      <c r="S164">
+        <v>7</v>
+      </c>
+      <c r="T164">
+        <v>3</v>
+      </c>
+      <c r="U164">
+        <v>14</v>
+      </c>
+      <c r="V164">
+        <v>6</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>1</v>
+      </c>
+      <c r="AA164">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>95</v>
       </c>
@@ -12802,8 +13036,68 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>48</v>
+      </c>
+      <c r="G165">
+        <v>39</v>
+      </c>
+      <c r="H165">
+        <v>31</v>
+      </c>
+      <c r="I165">
+        <v>22</v>
+      </c>
+      <c r="J165">
+        <v>16</v>
+      </c>
+      <c r="K165">
+        <v>10</v>
+      </c>
+      <c r="L165">
+        <v>44</v>
+      </c>
+      <c r="M165">
+        <v>26</v>
+      </c>
+      <c r="N165">
+        <v>6</v>
+      </c>
+      <c r="O165">
+        <v>1002</v>
+      </c>
+      <c r="P165">
+        <v>999</v>
+      </c>
+      <c r="Q165">
+        <v>998</v>
+      </c>
+      <c r="R165">
+        <v>10</v>
+      </c>
+      <c r="S165">
+        <v>7</v>
+      </c>
+      <c r="T165">
+        <v>6</v>
+      </c>
+      <c r="U165">
+        <v>14</v>
+      </c>
+      <c r="V165">
+        <v>6</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>4</v>
+      </c>
+      <c r="AA165">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>95</v>
       </c>
@@ -12819,8 +13113,68 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>47</v>
+      </c>
+      <c r="G166">
+        <v>39</v>
+      </c>
+      <c r="H166">
+        <v>31</v>
+      </c>
+      <c r="I166">
+        <v>23</v>
+      </c>
+      <c r="J166">
+        <v>16</v>
+      </c>
+      <c r="K166">
+        <v>9</v>
+      </c>
+      <c r="L166">
+        <v>59</v>
+      </c>
+      <c r="M166">
+        <v>27</v>
+      </c>
+      <c r="N166">
+        <v>6</v>
+      </c>
+      <c r="O166">
+        <v>1000</v>
+      </c>
+      <c r="P166">
+        <v>998</v>
+      </c>
+      <c r="Q166">
+        <v>997</v>
+      </c>
+      <c r="R166">
+        <v>10</v>
+      </c>
+      <c r="S166">
+        <v>9</v>
+      </c>
+      <c r="T166">
+        <v>6</v>
+      </c>
+      <c r="U166">
+        <v>11</v>
+      </c>
+      <c r="V166">
+        <v>6</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>2</v>
+      </c>
+      <c r="AA166">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>95</v>
       </c>
@@ -12836,8 +13190,65 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>47</v>
+      </c>
+      <c r="G167">
+        <v>39</v>
+      </c>
+      <c r="H167">
+        <v>30</v>
+      </c>
+      <c r="I167">
+        <v>28</v>
+      </c>
+      <c r="J167">
+        <v>19</v>
+      </c>
+      <c r="K167">
+        <v>11</v>
+      </c>
+      <c r="L167">
+        <v>71</v>
+      </c>
+      <c r="M167">
+        <v>35</v>
+      </c>
+      <c r="N167">
+        <v>9</v>
+      </c>
+      <c r="O167">
+        <v>1000</v>
+      </c>
+      <c r="P167">
+        <v>998</v>
+      </c>
+      <c r="Q167">
+        <v>997</v>
+      </c>
+      <c r="R167">
+        <v>10</v>
+      </c>
+      <c r="S167">
+        <v>5</v>
+      </c>
+      <c r="T167">
+        <v>3</v>
+      </c>
+      <c r="U167">
+        <v>11</v>
+      </c>
+      <c r="V167">
+        <v>6</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>95</v>
       </c>
@@ -12853,8 +13264,17 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>47</v>
+      </c>
+      <c r="G168">
+        <v>39</v>
+      </c>
+      <c r="H168">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>95</v>
       </c>
@@ -12870,8 +13290,17 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>48</v>
+      </c>
+      <c r="G169">
+        <v>39</v>
+      </c>
+      <c r="H169">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>95</v>
       </c>
@@ -12887,8 +13316,17 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>47</v>
+      </c>
+      <c r="G170">
+        <v>38</v>
+      </c>
+      <c r="H170">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>95</v>
       </c>
@@ -12904,8 +13342,17 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>47</v>
+      </c>
+      <c r="G171">
+        <v>39</v>
+      </c>
+      <c r="H171">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>95</v>
       </c>
@@ -12921,8 +13368,17 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>43</v>
+      </c>
+      <c r="G172">
+        <v>35</v>
+      </c>
+      <c r="H172">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>95</v>
       </c>
@@ -12939,7 +13395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>95</v>
       </c>
@@ -12956,7 +13412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>95</v>
       </c>
@@ -12973,7 +13429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>95</v>
       </c>
@@ -12990,7 +13446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>95</v>
       </c>
@@ -13007,7 +13463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>95</v>
       </c>
@@ -13024,7 +13480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>95</v>
       </c>
@@ -13041,7 +13497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>95</v>
       </c>
@@ -13058,7 +13514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>95</v>
       </c>
@@ -13075,7 +13531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>95</v>
       </c>
@@ -13092,7 +13548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>95</v>
       </c>
@@ -13109,7 +13565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>95</v>
       </c>
@@ -13126,7 +13582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>95</v>
       </c>
@@ -13143,7 +13599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>95</v>
       </c>
@@ -13160,7 +13616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>95</v>
       </c>
@@ -13177,7 +13633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>95</v>
       </c>
@@ -13194,7 +13650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>95</v>
       </c>
@@ -13211,7 +13667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>95</v>
       </c>
@@ -13228,7 +13684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>95</v>
       </c>
@@ -13245,7 +13701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>95</v>
       </c>
@@ -13262,7 +13718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>95</v>
       </c>
@@ -13279,7 +13735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>95</v>
       </c>
@@ -13296,7 +13752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>95</v>
       </c>
@@ -13313,7 +13769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>95</v>
       </c>
@@ -13330,7 +13786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>95</v>
       </c>
@@ -13347,7 +13803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>95</v>
       </c>
@@ -13364,7 +13820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>95</v>
       </c>
@@ -13381,7 +13837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>95</v>
       </c>
@@ -13398,7 +13854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>95</v>
       </c>
@@ -13415,7 +13871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>95</v>
       </c>
@@ -13432,7 +13888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>95</v>
       </c>
@@ -13449,7 +13905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>95</v>
       </c>
@@ -13466,7 +13922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>95</v>
       </c>
@@ -13483,7 +13939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>95</v>
       </c>
@@ -13500,7 +13956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>95</v>
       </c>
@@ -13517,7 +13973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>95</v>
       </c>
@@ -13534,7 +13990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>95</v>
       </c>
@@ -13551,7 +14007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>95</v>
       </c>
@@ -13568,7 +14024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>95</v>
       </c>
@@ -13585,7 +14041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>95</v>
       </c>
@@ -13602,7 +14058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>95</v>
       </c>
@@ -13619,7 +14075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>95</v>
       </c>
@@ -13636,7 +14092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>95</v>
       </c>
@@ -13653,7 +14109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>95</v>
       </c>
@@ -13670,7 +14126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>95</v>
       </c>
@@ -13687,7 +14143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>95</v>
       </c>
@@ -13704,7 +14160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>95</v>
       </c>
@@ -13721,7 +14177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>95</v>
       </c>
@@ -13738,7 +14194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>95</v>
       </c>
@@ -13755,7 +14211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>95</v>
       </c>
@@ -13772,7 +14228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>95</v>
       </c>
@@ -13789,7 +14245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>95</v>
       </c>
@@ -13806,7 +14262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>95</v>
       </c>
@@ -13823,7 +14279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>95</v>
       </c>
@@ -13840,7 +14296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>95</v>
       </c>
@@ -13857,7 +14313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>95</v>
       </c>
@@ -13874,7 +14330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>95</v>
       </c>
@@ -13891,7 +14347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>95</v>
       </c>
@@ -13908,7 +14364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>95</v>
       </c>
@@ -13925,7 +14381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>95</v>
       </c>
@@ -13942,7 +14398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>95</v>
       </c>
@@ -13959,7 +14415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>95</v>
       </c>
@@ -13976,7 +14432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>95</v>
       </c>
@@ -13993,7 +14449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>95</v>
       </c>
@@ -14010,7 +14466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>95</v>
       </c>
@@ -14027,7 +14483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>95</v>
       </c>
@@ -14044,7 +14500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>95</v>
       </c>
@@ -14061,7 +14517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>95</v>
       </c>
@@ -14078,7 +14534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>95</v>
       </c>
@@ -14095,7 +14551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>95</v>
       </c>
@@ -14112,7 +14568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>95</v>
       </c>
@@ -14129,7 +14585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>95</v>
       </c>
@@ -14146,7 +14602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>95</v>
       </c>
@@ -14163,7 +14619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>95</v>
       </c>
@@ -14180,7 +14636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>95</v>
       </c>
@@ -14197,7 +14653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>95</v>
       </c>
@@ -14214,7 +14670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>95</v>
       </c>
@@ -14231,7 +14687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>95</v>
       </c>
@@ -14248,7 +14704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>95</v>
       </c>
@@ -14265,7 +14721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>95</v>
       </c>
@@ -14282,7 +14738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>95</v>
       </c>
@@ -14299,7 +14755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>95</v>
       </c>
@@ -14316,7 +14772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>95</v>
       </c>
@@ -14333,7 +14789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>95</v>
       </c>
@@ -14350,7 +14806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>95</v>
       </c>
@@ -14367,7 +14823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>95</v>
       </c>
@@ -14384,7 +14840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>95</v>
       </c>
@@ -14401,7 +14857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>95</v>
       </c>
@@ -14418,7 +14874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>95</v>
       </c>
@@ -14435,7 +14891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>95</v>
       </c>
@@ -14452,7 +14908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>95</v>
       </c>
@@ -14469,7 +14925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>95</v>
       </c>
@@ -14486,7 +14942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>95</v>
       </c>
@@ -14503,7 +14959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>95</v>
       </c>
@@ -14520,7 +14976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>95</v>
       </c>
@@ -14537,7 +14993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>95</v>
       </c>
@@ -14554,7 +15010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>95</v>
       </c>
@@ -14571,7 +15027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>95</v>
       </c>
@@ -14588,7 +15044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>95</v>
       </c>
@@ -14605,7 +15061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>95</v>
       </c>
@@ -14622,7 +15078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>95</v>
       </c>
@@ -14639,7 +15095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>95</v>
       </c>
@@ -14656,7 +15112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>95</v>
       </c>
@@ -14673,7 +15129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>95</v>
       </c>
@@ -14690,7 +15146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>95</v>
       </c>
@@ -14707,7 +15163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>95</v>
       </c>
@@ -14724,7 +15180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>95</v>
       </c>
@@ -14741,7 +15197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>95</v>
       </c>
@@ -14758,7 +15214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>95</v>
       </c>
@@ -14775,7 +15231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>95</v>
       </c>
@@ -14792,7 +15248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>95</v>
       </c>
@@ -14809,7 +15265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>95</v>
       </c>
@@ -14826,7 +15282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>95</v>
       </c>
@@ -14843,7 +15299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>95</v>
       </c>
@@ -14860,7 +15316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>95</v>
       </c>
@@ -14877,7 +15333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>95</v>
       </c>
@@ -14894,7 +15350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>95</v>
       </c>
@@ -14911,7 +15367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>95</v>
       </c>
@@ -14928,7 +15384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>95</v>
       </c>
@@ -14945,7 +15401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>95</v>
       </c>
@@ -14962,7 +15418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>95</v>
       </c>
@@ -14979,7 +15435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>95</v>
       </c>
@@ -14996,7 +15452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>95</v>
       </c>
@@ -15013,7 +15469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>95</v>
       </c>
@@ -15030,7 +15486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>95</v>
       </c>
@@ -15047,7 +15503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>95</v>
       </c>
@@ -15064,7 +15520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>95</v>
       </c>
@@ -15081,7 +15537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>95</v>
       </c>
@@ -15098,7 +15554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>95</v>
       </c>
@@ -15115,7 +15571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>95</v>
       </c>
@@ -15132,7 +15588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>95</v>
       </c>
@@ -15149,7 +15605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>95</v>
       </c>
@@ -15166,7 +15622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>95</v>
       </c>
@@ -15183,7 +15639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>95</v>
       </c>
@@ -15200,7 +15656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>95</v>
       </c>
@@ -15217,7 +15673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>95</v>
       </c>
@@ -15234,7 +15690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>95</v>
       </c>
@@ -15251,7 +15707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>95</v>
       </c>
@@ -15268,7 +15724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>95</v>
       </c>
@@ -15285,7 +15741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>95</v>
       </c>
@@ -15302,7 +15758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>95</v>
       </c>
@@ -15319,7 +15775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>95</v>
       </c>
@@ -15336,7 +15792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>95</v>
       </c>
@@ -15353,7 +15809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>95</v>
       </c>
@@ -15370,7 +15826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>95</v>
       </c>
@@ -15387,7 +15843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>95</v>
       </c>
@@ -15404,7 +15860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>95</v>
       </c>
@@ -15421,7 +15877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>95</v>
       </c>
@@ -15438,7 +15894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>95</v>
       </c>
@@ -15455,7 +15911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>95</v>
       </c>
@@ -15472,7 +15928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>95</v>
       </c>
@@ -15489,7 +15945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>95</v>
       </c>
@@ -15506,7 +15962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>95</v>
       </c>
@@ -15523,7 +15979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>95</v>
       </c>
@@ -15540,7 +15996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>95</v>
       </c>
@@ -15557,7 +16013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>95</v>
       </c>
@@ -15574,7 +16030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>95</v>
       </c>
@@ -15591,7 +16047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>95</v>
       </c>
@@ -15608,7 +16064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>95</v>
       </c>
@@ -15625,7 +16081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>95</v>
       </c>
@@ -15642,7 +16098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>95</v>
       </c>
@@ -15659,7 +16115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>95</v>
       </c>
@@ -15676,7 +16132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>95</v>
       </c>
@@ -15693,7 +16149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>95</v>
       </c>
@@ -15710,7 +16166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>95</v>
       </c>
@@ -15727,7 +16183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>95</v>
       </c>
@@ -15744,7 +16200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>95</v>
       </c>
@@ -15761,7 +16217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>95</v>
       </c>
@@ -15778,7 +16234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>95</v>
       </c>
@@ -15795,7 +16251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>95</v>
       </c>
@@ -15812,7 +16268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>95</v>
       </c>
@@ -15829,7 +16285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>95</v>
       </c>
@@ -15846,7 +16302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>95</v>
       </c>
@@ -15863,7 +16319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>95</v>
       </c>
@@ -15880,7 +16336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>95</v>
       </c>
@@ -15897,7 +16353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>95</v>
       </c>
@@ -15914,7 +16370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>95</v>
       </c>
@@ -15931,7 +16387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>95</v>
       </c>
@@ -15948,7 +16404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>95</v>
       </c>
@@ -15965,7 +16421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>95</v>
       </c>
@@ -15982,7 +16438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>95</v>
       </c>
@@ -15999,7 +16455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>95</v>
       </c>
@@ -16016,7 +16472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>95</v>
       </c>
@@ -16033,7 +16489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>95</v>
       </c>
@@ -16050,7 +16506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>95</v>
       </c>
@@ -16067,7 +16523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>95</v>
       </c>
@@ -16084,7 +16540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>95</v>
       </c>
@@ -16101,7 +16557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>95</v>
       </c>
@@ -16118,7 +16574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>95</v>
       </c>
@@ -16135,7 +16591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>95</v>
       </c>
@@ -16152,7 +16608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>95</v>
       </c>
@@ -16169,7 +16625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>95</v>
       </c>
@@ -16186,7 +16642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>95</v>
       </c>
@@ -16203,7 +16659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>95</v>
       </c>
@@ -16231,7 +16687,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16243,7 +16699,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
